--- a/experiment(LRC circuit) (version 1).xlsx
+++ b/experiment(LRC circuit) (version 1).xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\AH-Physics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052CDC46-E300-4ABA-BE99-0C4E2D2B8AA1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{626950C5-5BE2-40A6-AA03-5D65EBBD561B}"/>
   </bookViews>
@@ -16,7 +17,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -691,10 +691,7 @@
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -810,6 +807,115 @@
           <c:tx>
             <c:v>Theoretical Values</c:v>
           </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$K$23:$K$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.76758976400701717</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.6222064448867981</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6810680833392508</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.1377904090002104</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.3249774700040771</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.5188616346004569</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.966812377428191</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10.629856911247616</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.2385709968440999</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.5053943462884511</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.3475414353004274</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.5449072460409061</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.960921230004721</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$K$23:$K$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.76758976400701717</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.6222064448867981</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.6810680833392508</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.1377904090002104</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.3249774700040771</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>9.5188616346004569</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.966812377428191</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>10.629856911247616</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.2385709968440999</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.5053943462884511</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.3475414353004274</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.5449072460409061</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.960921230004721</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$H$23:$H$35</c:f>
@@ -2024,16 +2130,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31567</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127364</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>39185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>331444</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>297231</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>143275</xdr:rowOff>
+      <xdr:rowOff>139766</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2360,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9521E1-1445-4897-858E-9571F4CBE224}">
   <dimension ref="B4:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="Q8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3038,8 +3144,8 @@
         <v>3.1982906833625715</v>
       </c>
       <c r="K23">
-        <f xml:space="preserve"> 5/((10000 + ((2*PI() *B6* 0.327) - (1/(2*PI()*B6*10*8.6^-6)))^2)^0.5)*10^3</f>
-        <v>7.9200010147402535</v>
+        <f>I23/100 *24</f>
+        <v>0.76758976400701717</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -3055,8 +3161,8 @@
         <v>6.7591935203616593</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K35" si="6" xml:space="preserve"> 5/((10000 + ((2*PI() *B7* 0.327) - (1/(2*PI()*B7*10*8.6^-6)))^2)^0.5)*10^3</f>
-        <v>16.771533400032894</v>
+        <f t="shared" ref="K24:K35" si="6">I24/100 *24</f>
+        <v>1.6222064448867981</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -3073,7 +3179,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="6"/>
-        <v>27.356157751222103</v>
+        <v>2.6810680833392508</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
@@ -3090,7 +3196,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="6"/>
-        <v>39.274536719898471</v>
+        <v>4.1377904090002104</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
@@ -3107,7 +3213,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="6"/>
-        <v>48.385503153717139</v>
+        <v>6.3249774700040771</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
@@ -3124,7 +3230,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="6"/>
-        <v>49.375008792229266</v>
+        <v>9.5188616346004569</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
@@ -3141,7 +3247,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="6"/>
-        <v>44.390238286064324</v>
+        <v>11.966812377428191</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -3158,7 +3264,7 @@
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
-        <v>38.307489931560191</v>
+        <v>10.629856911247616</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
@@ -3175,7 +3281,7 @@
       </c>
       <c r="K31">
         <f t="shared" si="6"/>
-        <v>33.074909170185585</v>
+        <v>8.2385709968440999</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
@@ -3192,7 +3298,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="6"/>
-        <v>28.915211216023128</v>
+        <v>6.5053943462884511</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.3">
@@ -3209,7 +3315,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="6"/>
-        <v>25.633786390481465</v>
+        <v>5.3475414353004274</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.3">
@@ -3226,7 +3332,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="6"/>
-        <v>23.01231732392462</v>
+        <v>4.5449072460409061</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.3">
@@ -3239,7 +3345,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="6"/>
-        <v>20.881247213438606</v>
+        <v>3.960921230004721</v>
       </c>
     </row>
   </sheetData>

--- a/experiment(LRC circuit) (version 1).xlsx
+++ b/experiment(LRC circuit) (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\AH-Physics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052CDC46-E300-4ABA-BE99-0C4E2D2B8AA1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D019EEE6-65E3-4D38-A09A-DD0BFF2DA310}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{626950C5-5BE2-40A6-AA03-5D65EBBD561B}"/>
   </bookViews>
@@ -572,12 +572,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -807,6 +805,10 @@
           <c:tx>
             <c:v>Theoretical Values</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+          </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -819,43 +821,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="13"/>
                   <c:pt idx="0">
-                    <c:v>0.76758976400701717</c:v>
+                    <c:v>0.32865160547096089</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6222064448867981</c:v>
+                    <c:v>0.73243025600841838</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.6810680833392508</c:v>
+                    <c:v>1.3286395971079283</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.1377904090002104</c:v>
+                    <c:v>2.3572040183013572</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.3249774700040771</c:v>
+                    <c:v>4.3467200162114485</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.5188616346004569</c:v>
+                    <c:v>7.9823804758795864</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>11.966812377428191</c:v>
+                    <c:v>10.537736237084589</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>10.629856911247616</c:v>
+                    <c:v>7.4282101079573906</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.2385709968440999</c:v>
+                    <c:v>4.0985832397380175</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.5053943462884511</c:v>
+                    <c:v>2.3632304323329048</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5.3475414353004274</c:v>
+                    <c:v>1.4901889527511227</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.5449072460409061</c:v>
+                    <c:v>1.0158714879794954</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.960921230004721</c:v>
+                    <c:v>0.73686280977179031</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -867,43 +869,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="13"/>
                   <c:pt idx="0">
-                    <c:v>0.76758976400701717</c:v>
+                    <c:v>0.32865160547096089</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6222064448867981</c:v>
+                    <c:v>0.73243025600841838</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.6810680833392508</c:v>
+                    <c:v>1.3286395971079283</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.1377904090002104</c:v>
+                    <c:v>2.3572040183013572</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.3249774700040771</c:v>
+                    <c:v>4.3467200162114485</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>9.5188616346004569</c:v>
+                    <c:v>7.9823804758795864</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>11.966812377428191</c:v>
+                    <c:v>10.537736237084589</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>10.629856911247616</c:v>
+                    <c:v>7.4282101079573906</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.2385709968440999</c:v>
+                    <c:v>4.0985832397380175</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.5053943462884511</c:v>
+                    <c:v>2.3632304323329048</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5.3475414353004274</c:v>
+                    <c:v>1.4901889527511227</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.5449072460409061</c:v>
+                    <c:v>1.0158714879794954</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.960921230004721</c:v>
+                    <c:v>0.73686280977179031</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -971,43 +973,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3.1982906833625715</c:v>
+                  <c:v>3.1977568997711541</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7591935203616593</c:v>
+                  <c:v>6.7541594485218175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.171117013913545</c:v>
+                  <c:v>11.148434787655725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.240793370834211</c:v>
+                  <c:v>17.157761333688189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.354072791683652</c:v>
+                  <c:v>26.060338250971874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.661923477501901</c:v>
+                  <c:v>38.681308495315996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.861718239284123</c:v>
+                  <c:v>47.953952642652432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.291070463531732</c:v>
+                  <c:v>42.937748747332954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.327379153517086</c:v>
+                  <c:v>33.685682433845606</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.105809776201877</c:v>
+                  <c:v>26.786523219612178</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.281422647085115</c:v>
+                  <c:v>22.103057679962468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.937113525170442</c:v>
+                  <c:v>18.827246039003871</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.503838458353005</c:v>
+                  <c:v>16.430961372306378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,16 +2132,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224898</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>39185</xdr:rowOff>
+      <xdr:rowOff>17938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>297231</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139766</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>443948</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>172278</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2464,10 +2466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9521E1-1445-4897-858E-9571F4CBE224}">
-  <dimension ref="B4:P35"/>
+  <dimension ref="B4:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3033,7 +3035,7 @@
         <v>5.0187012802866988</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>120</v>
       </c>
@@ -3079,7 +3081,7 @@
         <v>5.0241660452993253</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>130</v>
       </c>
@@ -3125,13 +3127,13 @@
         <v>5.0330629225832064</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D22">
         <f>(B6/100)*1.42</f>
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D23">
         <f t="shared" ref="D23:D34" si="4">(B7/100)*1.42</f>
         <v>0.28399999999999997</v>
@@ -3140,15 +3142,55 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <f xml:space="preserve"> 5/((10000 + ((2*PI() *B6* 0.5) - (1/(2*PI()*B6*10*10^-6)))^2)^0.5)*10^3</f>
-        <v>3.1982906833625715</v>
+        <f xml:space="preserve"> 5/T23*10^3</f>
+        <v>3.1977568997711541</v>
       </c>
       <c r="K23">
-        <f>I23/100 *24</f>
-        <v>0.76758976400701717</v>
+        <f>I23/100 *M23</f>
+        <v>0.32865160547096089</v>
+      </c>
+      <c r="M23">
+        <f>(1.42^2+ N23^2)^0.5</f>
+        <v>10.277566924942938</v>
+      </c>
+      <c r="N23">
+        <f>(O23/T23)*100</f>
+        <v>10.178997096800895</v>
+      </c>
+      <c r="O23">
+        <f>((((2*1)^2 + P23^2)^0.5))/2</f>
+        <v>159.15839470988786</v>
+      </c>
+      <c r="P23">
+        <f>(2*(((R23^2+S23^2)^0.5)/U23))*U23</f>
+        <v>318.31050630872022</v>
+      </c>
+      <c r="R23">
+        <f t="shared" ref="R23:R35" si="5">V23/100</f>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="S23">
+        <f t="shared" ref="S23:S35" si="6">W23/10</f>
+        <v>159.15494309189535</v>
+      </c>
+      <c r="T23">
+        <f>(104^2 + U23^2)^0.5</f>
+        <v>1563.596032067923</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:U35" si="7">ABS(V23 - W23)</f>
+        <v>1560.1335043830557</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ref="V23:V35" si="8">(2*PI() *B6* 0.5)</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ref="W23:W35" si="9">(1/(2*PI()*B6*10*10^-6))</f>
+        <v>1591.5494309189535</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D24">
         <f t="shared" si="4"/>
         <v>0.42599999999999999</v>
@@ -3157,15 +3199,55 @@
         <v>20</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I34" si="5" xml:space="preserve"> 5/((10000 + ((2*PI() *B7* 0.5) - (1/(2*PI()*B7*10*10^-6)))^2)^0.5)*10^3</f>
-        <v>6.7591935203616593</v>
+        <f t="shared" ref="I24:I35" si="10" xml:space="preserve"> 5/T24*10^3</f>
+        <v>6.7541594485218175</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K35" si="6">I24/100 *24</f>
-        <v>1.6222064448867981</v>
+        <f t="shared" ref="K24:K35" si="11">I24/100 *M24</f>
+        <v>0.73243025600841838</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M35" si="12">(1.42^2+ N24^2)^0.5</f>
+        <v>10.844136292469591</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N35" si="13">(O24/T24)*100</f>
+        <v>10.750762388298613</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="O24:O35" si="14">(((2*1)^2 + P24^2)^0.5)/2</f>
+        <v>79.586234750879854</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P35" si="15">(2*(((R24^2+S24^2)^0.5)/U24))*U24</f>
+        <v>159.1599040188471</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="5"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>79.577471545947674</v>
+      </c>
+      <c r="T24">
+        <f t="shared" ref="T24:T35" si="16">(104^2 + U24^2)^0.5</f>
+        <v>740.28456658574669</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="7"/>
+        <v>732.94286238768086</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="8"/>
+        <v>62.831853071795862</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="9"/>
+        <v>795.77471545947674</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D25">
         <f t="shared" si="4"/>
         <v>0.56799999999999995</v>
@@ -3174,15 +3256,55 @@
         <v>30</v>
       </c>
       <c r="I25">
+        <f t="shared" si="10"/>
+        <v>11.148434787655725</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="11"/>
+        <v>1.3286395971079283</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="12"/>
+        <v>11.917723181904288</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="13"/>
+        <v>11.832824085589158</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="14"/>
+        <v>53.069441186000532</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="15"/>
+        <v>106.12003746313643</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="5"/>
-        <v>11.171117013913545</v>
-      </c>
-      <c r="K25">
+        <v>0.94247779607693782</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="6"/>
-        <v>2.6810680833392508</v>
+        <v>53.051647697298449</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="16"/>
+        <v>448.4934517925625</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="7"/>
+        <v>436.26869736529068</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="8"/>
+        <v>94.247779607693786</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="9"/>
+        <v>530.51647697298449</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D26">
         <f t="shared" si="4"/>
         <v>0.71</v>
@@ -3191,15 +3313,55 @@
         <v>40</v>
       </c>
       <c r="I26">
+        <f t="shared" si="10"/>
+        <v>17.157761333688189</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="11"/>
+        <v>2.3572040183013572</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="12"/>
+        <v>13.738412444711738</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="13"/>
+        <v>13.66482991116283</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="14"/>
+        <v>39.821132971271702</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="15"/>
+        <v>79.617149688134461</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="5"/>
-        <v>17.240793370834211</v>
-      </c>
-      <c r="K26">
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="6"/>
-        <v>4.1377904090002104</v>
+        <v>39.788735772973837</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="16"/>
+        <v>291.41330869213186</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="7"/>
+        <v>272.22365158614662</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="8"/>
+        <v>125.66370614359172</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="9"/>
+        <v>397.88735772973837</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D27">
         <f t="shared" si="4"/>
         <v>0.85199999999999998</v>
@@ -3208,15 +3370,55 @@
         <v>50</v>
       </c>
       <c r="I27">
+        <f t="shared" si="10"/>
+        <v>26.060338250971874</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="11"/>
+        <v>4.3467200162114485</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="12"/>
+        <v>16.679445885739202</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="13"/>
+        <v>16.618890307577772</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="14"/>
+        <v>31.885407909005174</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="15"/>
+        <v>63.739445793751607</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="5"/>
-        <v>26.354072791683652</v>
-      </c>
-      <c r="K27">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="6"/>
-        <v>6.3249774700040771</v>
+        <v>31.830988618379063</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="16"/>
+        <v>191.86243677453166</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="7"/>
+        <v>161.23025350430098</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="8"/>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="9"/>
+        <v>318.30988618379064</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D28">
         <f t="shared" si="4"/>
         <v>0.99399999999999988</v>
@@ -3225,15 +3427,55 @@
         <v>60</v>
       </c>
       <c r="I28">
+        <f t="shared" si="10"/>
+        <v>38.681308495315996</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="11"/>
+        <v>7.9823804758795864</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="12"/>
+        <v>20.636273141706646</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="13"/>
+        <v>20.5873594513508</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="14"/>
+        <v>26.611508571179503</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="15"/>
+        <v>53.185426140399031</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="5"/>
-        <v>39.661923477501901</v>
-      </c>
-      <c r="K28">
+        <v>1.8849555921538756</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="6"/>
-        <v>9.5188616346004569</v>
+        <v>26.525823848649225</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="16"/>
+        <v>129.26139767493805</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="7"/>
+        <v>76.762679271104673</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="8"/>
+        <v>188.49555921538757</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="9"/>
+        <v>265.25823848649225</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D29">
         <f t="shared" si="4"/>
         <v>1.1359999999999999</v>
@@ -3242,15 +3484,55 @@
         <v>70</v>
       </c>
       <c r="I29">
+        <f t="shared" si="10"/>
+        <v>47.953952642652432</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="11"/>
+        <v>10.537736237084589</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="12"/>
+        <v>21.974697926593535</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="13"/>
+        <v>21.928769891743453</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="14"/>
+        <v>22.864402914973692</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="15"/>
+        <v>45.685048786589135</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="5"/>
-        <v>49.861718239284123</v>
-      </c>
-      <c r="K29">
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="6"/>
-        <v>11.966812377428191</v>
+        <v>22.736420441699337</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="16"/>
+        <v>104.2666917836669</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="7"/>
+        <v>7.452718665707863</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="8"/>
+        <v>219.91148575128551</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="9"/>
+        <v>227.36420441699337</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D30">
         <f t="shared" si="4"/>
         <v>1.278</v>
@@ -3259,15 +3541,55 @@
         <v>80</v>
       </c>
       <c r="I30">
+        <f t="shared" si="10"/>
+        <v>42.937748747332954</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="11"/>
+        <v>7.4282101079573906</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="12"/>
+        <v>17.29995243036301</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="13"/>
+        <v>17.24157632273868</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="14"/>
+        <v>20.077410700077319</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="15"/>
+        <v>40.104983252437805</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="5"/>
-        <v>44.291070463531732</v>
-      </c>
-      <c r="K30">
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="6"/>
-        <v>10.629856911247616</v>
+        <v>19.894367886486918</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="16"/>
+        <v>116.44765144587539</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="7"/>
+        <v>52.383733422314265</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="8"/>
+        <v>251.32741228718345</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="9"/>
+        <v>198.94367886486918</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D31">
         <f t="shared" si="4"/>
         <v>1.42</v>
@@ -3276,15 +3598,55 @@
         <v>90</v>
       </c>
       <c r="I31">
+        <f t="shared" si="10"/>
+        <v>33.685682433845606</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="11"/>
+        <v>4.0985832397380175</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="12"/>
+        <v>12.167137322472579</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="13"/>
+        <v>12.083990674603536</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="14"/>
+        <v>17.936389886615707</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="15"/>
+        <v>35.816983801804987</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="5"/>
-        <v>34.327379153517086</v>
-      </c>
-      <c r="K31">
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="6"/>
-        <v>8.2385709968440999</v>
+        <v>17.683882565766147</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="16"/>
+        <v>148.4310139721635</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="7"/>
+        <v>105.9045131654199</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="8"/>
+        <v>282.74333882308139</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="9"/>
+        <v>176.83882565766149</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="D32">
         <f t="shared" si="4"/>
         <v>1.5620000000000001</v>
@@ -3293,15 +3655,55 @@
         <v>100</v>
       </c>
       <c r="I32">
+        <f t="shared" si="10"/>
+        <v>26.786523219612178</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="11"/>
+        <v>2.3632304323329048</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="12"/>
+        <v>8.8224605073144691</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="13"/>
+        <v>8.7074341457816082</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="14"/>
+        <v>16.253386216629867</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="15"/>
+        <v>32.445188457269516</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="5"/>
-        <v>27.105809776201877</v>
-      </c>
-      <c r="K32">
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="6"/>
-        <v>6.5053943462884511</v>
+        <v>15.915494309189532</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="16"/>
+        <v>186.66102946645836</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="7"/>
+        <v>155.00432226708401</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="8"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="9"/>
+        <v>159.15494309189532</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D33">
         <f t="shared" si="4"/>
         <v>1.704</v>
@@ -3310,15 +3712,55 @@
         <v>110</v>
       </c>
       <c r="I33">
+        <f t="shared" si="10"/>
+        <v>22.103057679962468</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="11"/>
+        <v>1.4901889527511227</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="12"/>
+        <v>6.7420036373612415</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="13"/>
+        <v>6.5907672577775207</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="14"/>
+        <v>14.909175357562365</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="15"/>
+        <v>29.751202318060685</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="5"/>
-        <v>22.281422647085115</v>
-      </c>
-      <c r="K33">
+        <v>3.4557519189487724</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="6"/>
-        <v>5.3475414353004274</v>
+        <v>14.468631190172303</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="16"/>
+        <v>226.2130458326927</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="7"/>
+        <v>200.88887999315423</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="8"/>
+        <v>345.57519189487726</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="9"/>
+        <v>144.68631190172303</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D34">
         <f t="shared" si="4"/>
         <v>1.8459999999999999</v>
@@ -3327,25 +3769,105 @@
         <v>120</v>
       </c>
       <c r="I34">
+        <f t="shared" si="10"/>
+        <v>18.827246039003871</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="11"/>
+        <v>1.0158714879794954</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="12"/>
+        <v>5.3957519112192163</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="13"/>
+        <v>5.2055488363308848</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="14"/>
+        <v>13.824509504859863</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="15"/>
+        <v>27.576588842709366</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="5"/>
-        <v>18.937113525170442</v>
-      </c>
-      <c r="K34">
+        <v>3.7699111843077513</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="6"/>
-        <v>4.5449072460409061</v>
+        <v>13.262911924324612</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="16"/>
+        <v>265.57256380681707</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="7"/>
+        <v>244.36199918752902</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="8"/>
+        <v>376.99111843077515</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="9"/>
+        <v>132.62911924324612</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:23" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>130</v>
       </c>
       <c r="I35">
-        <f xml:space="preserve"> 5/((10000 + ((2*PI() *B18* 0.5) - (1/(2*PI()*B18*10*10^-6)))^2)^0.5)*10^3</f>
-        <v>16.503838458353005</v>
+        <f t="shared" si="10"/>
+        <v>16.430961372306378</v>
       </c>
       <c r="K35">
+        <f t="shared" si="11"/>
+        <v>0.73686280977179031</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="12"/>
+        <v>4.4845994891920222</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="13"/>
+        <v>4.2538491485314038</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="14"/>
+        <v>12.944614292931968</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="15"/>
+        <v>25.81186077699774</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>4.0840704496667311</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="6"/>
-        <v>3.960921230004721</v>
+        <v>12.242687930145797</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="16"/>
+        <v>304.30355757681156</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="7"/>
+        <v>285.98016566521511</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="8"/>
+        <v>408.40704496667308</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="9"/>
+        <v>122.42687930145797</v>
       </c>
     </row>
   </sheetData>
